--- a/data/trans_orig/P1412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1535060-4DC9-4E11-B7BB-3EDF517D9D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA78DF5B-EF88-41DE-9BD2-2778342456F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C3B3CDB-1543-4C87-9282-E3062C5926EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCFA36F0-71FA-4410-9E94-67A8ABE6DD05}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -85,652 +85,640 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>98,34%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -739,7 +727,7 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>98,68%</t>
+    <t>98,72%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -1157,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA863CFB-CC5C-4066-97DB-161AC4ECC67D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065F321B-9420-4ADA-999A-965CA4CCAC5A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1782,7 +1770,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,7 +1788,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1815,7 +1803,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -1827,10 +1815,10 @@
         <v>1226802</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1889,7 +1877,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1901,13 +1889,13 @@
         <v>1030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1916,13 +1904,13 @@
         <v>4076</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1931,13 +1919,13 @@
         <v>5106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,10 +1940,10 @@
         <v>428399</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2214,10 +2202,10 @@
         <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2226,13 +2214,13 @@
         <v>24778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -2241,13 +2229,13 @@
         <v>47746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2250,13 @@
         <v>3403811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="H23" s="7">
         <v>3271</v>
@@ -2277,13 +2265,13 @@
         <v>3528190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>6459</v>
@@ -2292,13 +2280,13 @@
         <v>6932001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,7 +2342,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D00808C-F989-4FCE-9CF2-126B389ED893}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D19624F-D0A4-4CF2-A18C-234D229A772E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2393,7 +2381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2506,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2515,13 +2503,13 @@
         <v>2044</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2530,13 +2518,13 @@
         <v>2044</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,7 +2542,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2566,10 +2554,10 @@
         <v>393711</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2581,10 +2569,10 @@
         <v>813174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2655,13 +2643,13 @@
         <v>2253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2676,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2685,13 +2673,13 @@
         <v>2253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,10 +2694,10 @@
         <v>588243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2724,7 +2712,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2736,10 +2724,10 @@
         <v>1151787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2816,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2825,13 +2813,13 @@
         <v>940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2840,13 +2828,13 @@
         <v>940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2852,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2876,10 +2864,10 @@
         <v>660446</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2891,10 +2879,10 @@
         <v>1329543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2971,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2986,7 +2974,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3019,7 +3007,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3034,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3043,7 +3031,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>19</v>
@@ -3094,7 +3082,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -3108,7 +3096,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3120,13 +3108,13 @@
         <v>8706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3135,13 +3123,13 @@
         <v>3521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3150,13 +3138,13 @@
         <v>12227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3159,13 @@
         <v>469212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>430</v>
@@ -3186,10 +3174,10 @@
         <v>493328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -3201,13 +3189,13 @@
         <v>962540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3263,13 @@
         <v>15195</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3290,13 +3278,13 @@
         <v>12678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -3305,13 +3293,13 @@
         <v>27874</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3314,13 @@
         <v>576133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>644</v>
@@ -3341,13 +3329,13 @@
         <v>765253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7">
         <v>1255</v>
@@ -3356,13 +3344,13 @@
         <v>1341385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3418,13 @@
         <v>26154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3445,13 +3433,13 @@
         <v>19183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3463,10 +3451,10 @@
         <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3475,7 @@
         <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
         <v>3321</v>
@@ -3496,13 +3484,13 @@
         <v>3525359</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>6526</v>
@@ -3511,13 +3499,13 @@
         <v>6893554</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3561,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EBD4B8-4BA3-437C-ABC5-844F59A4FD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBD2CA5-4E6D-447E-A465-9C571DD4FD47}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3725,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3740,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3755,7 +3743,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3761,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3788,7 +3776,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3803,7 +3791,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3880,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3895,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3910,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,7 +3916,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3943,7 +3931,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3958,7 +3946,7 @@
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4029,13 +4017,13 @@
         <v>1183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4050,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4059,13 +4047,13 @@
         <v>2033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4068,10 @@
         <v>553342</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4098,7 +4086,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4110,10 +4098,10 @@
         <v>1134548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4184,13 +4172,13 @@
         <v>5603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4199,13 +4187,13 @@
         <v>2082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4214,13 +4202,13 @@
         <v>7685</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,10 +4226,10 @@
         <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>1135</v>
@@ -4250,28 +4238,28 @@
         <v>743824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1795</v>
       </c>
       <c r="N14" s="7">
-        <v>1462212</v>
+        <v>1462211</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,7 +4301,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1469897</v>
+        <v>1469896</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -4327,7 +4315,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4339,13 +4327,13 @@
         <v>4676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4354,13 +4342,13 @@
         <v>5677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4369,13 +4357,13 @@
         <v>10353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4378,13 @@
         <v>594410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>990</v>
@@ -4405,13 +4393,13 @@
         <v>587740</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1647</v>
@@ -4420,13 +4408,13 @@
         <v>1182150</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4482,13 @@
         <v>20380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4509,13 +4497,13 @@
         <v>11090</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -4524,13 +4512,13 @@
         <v>31471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4533,13 @@
         <v>676597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>1683</v>
@@ -4560,13 +4548,13 @@
         <v>1015097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>2678</v>
@@ -4575,13 +4563,13 @@
         <v>1691693</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4637,13 @@
         <v>31843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4664,13 +4652,13 @@
         <v>19700</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -4679,13 +4667,13 @@
         <v>51543</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4688,13 @@
         <v>3348810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>5318</v>
@@ -4715,13 +4703,13 @@
         <v>3781400</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M23" s="7">
         <v>8647</v>
@@ -4730,13 +4718,13 @@
         <v>7130211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4780,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA78DF5B-EF88-41DE-9BD2-2778342456F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{023416BE-29EC-46CB-ABBA-B58B6122D670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCFA36F0-71FA-4410-9E94-67A8ABE6DD05}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE45B447-E5A2-4676-B5E1-F95172F9FEED}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="246">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,85%</t>
+    <t>98,77%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,44%</t>
+    <t>99,43%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,7 +124,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -133,607 +133,649 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>98,72%</t>
   </si>
   <si>
     <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065F321B-9420-4ADA-999A-965CA4CCAC5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD9D33-0149-4E73-9968-F6154750C337}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1770,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,7 +1830,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1803,7 +1845,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -1815,10 +1857,10 @@
         <v>1226802</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1877,7 +1919,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1931,13 @@
         <v>1030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1904,13 +1946,13 @@
         <v>4076</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1919,13 +1961,13 @@
         <v>5106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,10 +1982,10 @@
         <v>428399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1955,10 +1997,10 @@
         <v>443724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -1970,13 +2012,13 @@
         <v>872123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2074,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2086,13 @@
         <v>18828</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -2059,13 +2101,13 @@
         <v>18591</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -2074,13 +2116,13 @@
         <v>37419</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2137,13 @@
         <v>540809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>676</v>
@@ -2110,13 +2152,13 @@
         <v>723201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>1163</v>
@@ -2125,13 +2167,13 @@
         <v>1264010</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2241,13 @@
         <v>22968</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2214,13 +2256,13 @@
         <v>24778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -2229,13 +2271,13 @@
         <v>47746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2292,13 @@
         <v>3403811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>3271</v>
@@ -2265,13 +2307,13 @@
         <v>3528190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>6459</v>
@@ -2280,13 +2322,13 @@
         <v>6932001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,7 +2384,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D19624F-D0A4-4CF2-A18C-234D229A772E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A934C2-29AE-4611-A28A-BAD29E44EDF3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2381,7 +2423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2494,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2503,13 +2545,13 @@
         <v>2044</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2518,13 +2560,13 @@
         <v>2044</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,7 +2584,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2554,10 +2596,10 @@
         <v>393711</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2569,10 +2611,10 @@
         <v>813174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2643,13 +2685,13 @@
         <v>2253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2664,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2673,13 +2715,13 @@
         <v>2253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,10 +2736,10 @@
         <v>588243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2712,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2724,10 +2766,10 @@
         <v>1151787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2804,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2813,13 +2855,13 @@
         <v>940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2828,13 +2870,13 @@
         <v>940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2894,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2864,10 +2906,10 @@
         <v>660446</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2879,10 +2921,10 @@
         <v>1329543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2959,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2974,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3007,7 +3049,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3022,7 +3064,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3031,7 +3073,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>19</v>
@@ -3082,7 +3124,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -3096,7 +3138,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3108,13 +3150,13 @@
         <v>8706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3123,13 +3165,13 @@
         <v>3521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3138,13 +3180,13 @@
         <v>12227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3201,13 @@
         <v>469212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>430</v>
@@ -3174,10 +3216,10 @@
         <v>493328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -3189,13 +3231,13 @@
         <v>962540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3293,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3263,13 +3305,13 @@
         <v>15195</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3278,13 +3320,13 @@
         <v>12678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -3293,13 +3335,13 @@
         <v>27874</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3356,13 @@
         <v>576133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>644</v>
@@ -3329,13 +3371,13 @@
         <v>765253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>1255</v>
@@ -3344,13 +3386,13 @@
         <v>1341385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3460,13 @@
         <v>26154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3433,13 +3475,13 @@
         <v>19183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3448,13 +3490,13 @@
         <v>45338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3511,13 @@
         <v>3368196</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="H23" s="7">
         <v>3321</v>
@@ -3484,13 +3526,13 @@
         <v>3525359</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>6526</v>
@@ -3499,13 +3541,13 @@
         <v>6893554</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3603,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBD2CA5-4E6D-447E-A465-9C571DD4FD47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BC167-080C-43BE-9404-EB0508847492}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3713,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3728,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3743,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,7 +3803,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3776,7 +3818,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3791,7 +3833,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3868,7 +3910,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3883,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3898,7 +3940,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3958,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3931,7 +3973,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3946,7 +3988,7 @@
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4017,13 +4059,13 @@
         <v>1183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4038,7 +4080,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4047,13 +4089,13 @@
         <v>2033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,10 +4110,10 @@
         <v>553342</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4086,7 +4128,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4098,10 +4140,10 @@
         <v>1134548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4172,13 +4214,13 @@
         <v>5603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4187,13 +4229,13 @@
         <v>2082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4202,13 +4244,13 @@
         <v>7685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4265,13 @@
         <v>718387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>1135</v>
@@ -4238,13 +4280,13 @@
         <v>743824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>1795</v>
@@ -4253,13 +4295,13 @@
         <v>1462211</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,7 +4357,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4327,13 +4369,13 @@
         <v>4676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4342,13 +4384,13 @@
         <v>5677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4357,13 +4399,13 @@
         <v>10353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4420,13 @@
         <v>594410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>990</v>
@@ -4393,13 +4435,13 @@
         <v>587740</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>1647</v>
@@ -4408,13 +4450,13 @@
         <v>1182150</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4512,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4482,13 +4524,13 @@
         <v>20380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4497,13 +4539,13 @@
         <v>11090</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -4512,13 +4554,13 @@
         <v>31471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4575,13 @@
         <v>676597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>1683</v>
@@ -4548,13 +4590,13 @@
         <v>1015097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>2678</v>
@@ -4563,13 +4605,13 @@
         <v>1691693</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4679,13 @@
         <v>31843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4652,13 +4694,13 @@
         <v>19700</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -4667,13 +4709,13 @@
         <v>51543</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4730,13 @@
         <v>3348810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>5318</v>
@@ -4703,13 +4745,13 @@
         <v>3781400</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M23" s="7">
         <v>8647</v>
@@ -4718,13 +4760,13 @@
         <v>7130211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +4822,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{023416BE-29EC-46CB-ABBA-B58B6122D670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B2E181-2273-4221-899B-F2DC57A5E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE45B447-E5A2-4676-B5E1-F95172F9FEED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2E41641-C9CE-42BD-8450-0B5E4A61C223}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="236">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -85,697 +85,667 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>99,43%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD9D33-0149-4E73-9968-F6154750C337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F5A9D-F9CF-4D25-BAB2-CC191BC14616}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1937,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1946,13 +1916,13 @@
         <v>4076</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1961,13 +1931,13 @@
         <v>5106</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,10 +1952,10 @@
         <v>428399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1997,10 +1967,10 @@
         <v>443724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -2012,13 +1982,13 @@
         <v>872123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,7 +2044,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2086,13 +2056,13 @@
         <v>18828</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -2101,13 +2071,13 @@
         <v>18591</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -2116,13 +2086,13 @@
         <v>37419</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2107,13 @@
         <v>540809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>676</v>
@@ -2152,13 +2122,13 @@
         <v>723201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>1163</v>
@@ -2167,13 +2137,13 @@
         <v>1264010</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2211,13 @@
         <v>22968</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2256,13 +2226,13 @@
         <v>24778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -2271,13 +2241,13 @@
         <v>47746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2262,13 @@
         <v>3403811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="H23" s="7">
         <v>3271</v>
@@ -2307,13 +2277,13 @@
         <v>3528190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <v>6459</v>
@@ -2322,13 +2292,13 @@
         <v>6932001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2354,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A934C2-29AE-4611-A28A-BAD29E44EDF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057B1F4-D215-4844-8CB8-F2E8FA6351B1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2423,7 +2393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2536,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2545,13 +2515,13 @@
         <v>2044</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2560,13 +2530,13 @@
         <v>2044</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,7 +2554,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2596,10 +2566,10 @@
         <v>393711</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2611,10 +2581,10 @@
         <v>813174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2685,13 +2655,13 @@
         <v>2253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2706,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2715,13 +2685,13 @@
         <v>2253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,10 +2706,10 @@
         <v>588243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2754,7 +2724,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2766,10 +2736,10 @@
         <v>1151787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2846,7 +2816,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2855,13 +2825,13 @@
         <v>940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2870,13 +2840,13 @@
         <v>940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2906,10 +2876,10 @@
         <v>660446</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2921,10 +2891,10 @@
         <v>1329543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3001,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3016,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3049,7 +3019,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3064,7 +3034,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3150,13 +3120,13 @@
         <v>8706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3165,13 +3135,13 @@
         <v>3521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3180,13 +3150,13 @@
         <v>12227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3171,13 @@
         <v>469212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>430</v>
@@ -3216,10 +3186,10 @@
         <v>493328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -3231,13 +3201,13 @@
         <v>962540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3263,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3305,13 +3275,13 @@
         <v>15195</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3320,13 +3290,13 @@
         <v>12678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -3335,13 +3305,13 @@
         <v>27874</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3326,13 @@
         <v>576133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>644</v>
@@ -3371,13 +3341,13 @@
         <v>765253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>1255</v>
@@ -3386,13 +3356,13 @@
         <v>1341385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3430,13 @@
         <v>26154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3475,13 +3445,13 @@
         <v>19183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3490,13 +3460,13 @@
         <v>45338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3481,13 @@
         <v>3368196</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>3321</v>
@@ -3526,13 +3496,13 @@
         <v>3525359</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>6526</v>
@@ -3541,13 +3511,13 @@
         <v>6893554</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3573,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BC167-080C-43BE-9404-EB0508847492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8BACC8-BA59-4724-9FB4-955D9717C078}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3642,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3755,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3770,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3785,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,7 +3773,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3818,7 +3788,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3833,7 +3803,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3910,7 +3880,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3925,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3940,7 +3910,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,7 +3928,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3973,7 +3943,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3988,7 +3958,7 @@
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4059,13 +4029,13 @@
         <v>1183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4080,7 +4050,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4089,13 +4059,13 @@
         <v>2033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,10 +4080,10 @@
         <v>553342</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4128,7 +4098,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4140,10 +4110,10 @@
         <v>1134548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4214,13 +4184,13 @@
         <v>5603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4229,13 +4199,13 @@
         <v>2082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4244,13 +4214,13 @@
         <v>7685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4235,13 @@
         <v>718387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>1135</v>
@@ -4280,28 +4250,28 @@
         <v>743824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>1795</v>
       </c>
       <c r="N14" s="7">
-        <v>1462211</v>
+        <v>1462212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,7 +4313,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1469896</v>
+        <v>1469897</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -4369,13 +4339,13 @@
         <v>4676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4384,13 +4354,13 @@
         <v>5677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4399,13 +4369,13 @@
         <v>10353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4390,13 @@
         <v>594410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H17" s="7">
         <v>990</v>
@@ -4435,13 +4405,13 @@
         <v>587740</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>1647</v>
@@ -4450,13 +4420,13 @@
         <v>1182150</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,7 +4482,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4524,13 +4494,13 @@
         <v>20380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4539,13 +4509,13 @@
         <v>11090</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -4554,13 +4524,13 @@
         <v>31471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4545,13 @@
         <v>676597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>1683</v>
@@ -4590,13 +4560,13 @@
         <v>1015097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>2678</v>
@@ -4605,13 +4575,13 @@
         <v>1691693</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4649,13 @@
         <v>31843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4694,13 +4664,13 @@
         <v>19700</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -4709,13 +4679,13 @@
         <v>51543</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4700,13 @@
         <v>3348810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>5318</v>
@@ -4745,10 +4715,10 @@
         <v>3781400</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>52</v>
@@ -4760,13 +4730,13 @@
         <v>7130211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4792,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B2E181-2273-4221-899B-F2DC57A5E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FECA25F-0FCC-4F41-93F5-343438238184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2E41641-C9CE-42BD-8450-0B5E4A61C223}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DD2FF6B4-2AE7-4452-AFFE-4BE0C783BF36}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="267">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -118,7 +118,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -151,7 +151,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -178,7 +178,7 @@
     <t>99,59%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -205,7 +205,7 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -238,61 +238,118 @@
     <t>98,71%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -469,283 +526,319 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1250,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F5A9D-F9CF-4D25-BAB2-CC191BC14616}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB90E1-C033-4734-BF66-14E8A61DFF51}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2050,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>18828</v>
+        <v>8441</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>67</v>
@@ -2065,10 +2158,10 @@
         <v>69</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>18591</v>
+        <v>2971</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>70</v>
@@ -2080,10 +2173,10 @@
         <v>72</v>
       </c>
       <c r="M19" s="7">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>37419</v>
+        <v>11412</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>73</v>
@@ -2101,10 +2194,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>487</v>
+        <v>275</v>
       </c>
       <c r="D20" s="7">
-        <v>540809</v>
+        <v>301345</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>76</v>
@@ -2116,10 +2209,10 @@
         <v>78</v>
       </c>
       <c r="H20" s="7">
-        <v>676</v>
+        <v>341</v>
       </c>
       <c r="I20" s="7">
-        <v>723201</v>
+        <v>351025</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>79</v>
@@ -2131,10 +2224,10 @@
         <v>81</v>
       </c>
       <c r="M20" s="7">
-        <v>1163</v>
+        <v>616</v>
       </c>
       <c r="N20" s="7">
-        <v>1264010</v>
+        <v>652370</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>82</v>
@@ -2152,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2167,10 +2260,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -2182,10 +2275,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2199,55 +2292,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>22968</v>
+        <v>10387</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>24778</v>
+        <v>15620</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N22" s="7">
-        <v>47746</v>
+        <v>26007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,49 +2349,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3188</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>3403811</v>
+        <v>239464</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="H23" s="7">
-        <v>3271</v>
+        <v>335</v>
       </c>
       <c r="I23" s="7">
-        <v>3528190</v>
+        <v>372176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="M23" s="7">
-        <v>6459</v>
+        <v>547</v>
       </c>
       <c r="N23" s="7">
-        <v>6932001</v>
+        <v>611640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,63 +2400,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7">
+        <v>22968</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="7">
+        <v>23</v>
+      </c>
+      <c r="I25" s="7">
+        <v>24778</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="7">
+        <v>44</v>
+      </c>
+      <c r="N25" s="7">
+        <v>47746</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3188</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3403811</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3271</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3528190</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6459</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6932001</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3294</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3552968</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6503</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6979747</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>99</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2376,8 +2625,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057B1F4-D215-4844-8CB8-F2E8FA6351B1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5C5B6C-8CE7-4AB9-BCDD-36223FFB4F12}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2393,7 +2642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2506,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2515,13 +2764,13 @@
         <v>2044</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2530,13 +2779,13 @@
         <v>2044</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,7 +2803,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2566,10 +2815,10 @@
         <v>393711</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2581,10 +2830,10 @@
         <v>813174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2655,13 +2904,13 @@
         <v>2253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2676,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2685,13 +2934,13 @@
         <v>2253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,10 +2955,10 @@
         <v>588243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2724,7 +2973,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2736,10 +2985,10 @@
         <v>1151787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2816,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2825,13 +3074,13 @@
         <v>940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2840,7 +3089,7 @@
         <v>940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -2864,7 +3113,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2876,10 +3125,10 @@
         <v>660446</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2891,7 +3140,7 @@
         <v>1329543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>36</v>
@@ -2971,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2986,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3019,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3034,7 +3283,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3120,13 +3369,13 @@
         <v>8706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3135,13 +3384,13 @@
         <v>3521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3150,13 +3399,13 @@
         <v>12227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3420,13 @@
         <v>469212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H17" s="7">
         <v>430</v>
@@ -3186,10 +3435,10 @@
         <v>493328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -3201,13 +3450,13 @@
         <v>962540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,49 +3518,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>15195</v>
+        <v>7844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>12678</v>
+        <v>5193</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>27874</v>
+        <v>13037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,49 +3569,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>611</v>
+        <v>318</v>
       </c>
       <c r="D20" s="7">
-        <v>576133</v>
+        <v>326486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
-        <v>644</v>
+        <v>349</v>
       </c>
       <c r="I20" s="7">
-        <v>765253</v>
+        <v>372569</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
-        <v>1255</v>
+        <v>667</v>
       </c>
       <c r="N20" s="7">
-        <v>1341385</v>
+        <v>699055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,10 +3620,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3386,10 +3635,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -3401,10 +3650,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -3418,55 +3667,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>26154</v>
+        <v>7351</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="H22" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>19183</v>
+        <v>7485</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>45338</v>
+        <v>14837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,49 +3724,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3205</v>
+        <v>293</v>
       </c>
       <c r="D23" s="7">
-        <v>3368196</v>
+        <v>249647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
-        <v>3321</v>
+        <v>295</v>
       </c>
       <c r="I23" s="7">
-        <v>3525359</v>
+        <v>392684</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
-        <v>6526</v>
+        <v>588</v>
       </c>
       <c r="N23" s="7">
-        <v>6893554</v>
+        <v>642330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,63 +3775,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>26</v>
+      </c>
+      <c r="D25" s="7">
+        <v>26154</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="7">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7">
+        <v>19183</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="7">
+        <v>43</v>
+      </c>
+      <c r="N25" s="7">
+        <v>45338</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3205</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3368196</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3321</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3525359</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6526</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6893554</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>99</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3595,8 +4000,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8BACC8-BA59-4724-9FB4-955D9717C078}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66E6F3F-7EEC-4B92-BE96-C4A97DDC6841}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3612,7 +4017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3725,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3740,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3755,7 +4160,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +4172,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3782,13 +4187,13 @@
         <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3797,13 +4202,13 @@
         <v>379</v>
       </c>
       <c r="N5" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3818,7 +4223,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -3833,7 +4238,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -3848,7 +4253,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -3880,7 +4285,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3895,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3910,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +4327,13 @@
         <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3937,13 +4342,13 @@
         <v>460</v>
       </c>
       <c r="I8" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3952,13 +4357,13 @@
         <v>762</v>
       </c>
       <c r="N8" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3973,7 +4378,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -3988,7 +4393,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -4003,7 +4408,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -4026,46 +4431,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1183</v>
+        <v>1025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>850</v>
+        <v>724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2033</v>
+        <v>1750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4482,13 @@
         <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>553342</v>
+        <v>532634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4092,13 +4497,13 @@
         <v>843</v>
       </c>
       <c r="I11" s="7">
-        <v>581205</v>
+        <v>540388</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4107,13 +4512,13 @@
         <v>1386</v>
       </c>
       <c r="N11" s="7">
-        <v>1134548</v>
+        <v>1073021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4128,7 +4533,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>554525</v>
+        <v>533659</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -4143,7 +4548,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>582055</v>
+        <v>541112</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -4158,7 +4563,7 @@
         <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>1136581</v>
+        <v>1074771</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -4181,46 +4586,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>5603</v>
+        <v>5576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2082</v>
+        <v>1929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>7685</v>
+        <v>7505</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,46 +4637,46 @@
         <v>660</v>
       </c>
       <c r="D14" s="7">
-        <v>718387</v>
+        <v>882210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>1135</v>
       </c>
       <c r="I14" s="7">
-        <v>743824</v>
+        <v>709679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
         <v>1795</v>
       </c>
       <c r="N14" s="7">
-        <v>1462212</v>
+        <v>1591889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,7 +4688,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -4298,7 +4703,7 @@
         <v>1138</v>
       </c>
       <c r="I15" s="7">
-        <v>745906</v>
+        <v>711608</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -4313,7 +4718,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1469897</v>
+        <v>1599394</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -4336,46 +4741,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>4676</v>
+        <v>4485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>5677</v>
+        <v>5103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>10353</v>
+        <v>9588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,46 +4792,46 @@
         <v>657</v>
       </c>
       <c r="D17" s="7">
-        <v>594410</v>
+        <v>555752</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>990</v>
       </c>
       <c r="I17" s="7">
-        <v>587740</v>
+        <v>539625</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>1647</v>
       </c>
       <c r="N17" s="7">
-        <v>1182150</v>
+        <v>1095376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4843,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -4453,7 +4858,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>593417</v>
+        <v>544728</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -4468,7 +4873,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1192503</v>
+        <v>1104964</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -4488,49 +4893,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>20380</v>
+        <v>9029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>11090</v>
+        <v>4175</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>31471</v>
+        <v>13204</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,49 +4944,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>995</v>
+        <v>555</v>
       </c>
       <c r="D20" s="7">
-        <v>676597</v>
+        <v>358418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
-        <v>1683</v>
+        <v>818</v>
       </c>
       <c r="I20" s="7">
-        <v>1015097</v>
+        <v>604193</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
-        <v>2678</v>
+        <v>1373</v>
       </c>
       <c r="N20" s="7">
-        <v>1691693</v>
+        <v>962610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4995,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -4605,10 +5010,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026187</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -4620,10 +5025,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1723164</v>
+        <v>975814</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -4637,55 +5042,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>31843</v>
+        <v>10038</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>19700</v>
+        <v>5999</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M22" s="7">
+        <v>33</v>
+      </c>
+      <c r="N22" s="7">
+        <v>16037</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" s="7">
-        <v>80</v>
-      </c>
-      <c r="N22" s="7">
-        <v>51543</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,49 +5099,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3329</v>
+        <v>440</v>
       </c>
       <c r="D23" s="7">
-        <v>3348810</v>
+        <v>272721</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
-        <v>5318</v>
+        <v>865</v>
       </c>
       <c r="I23" s="7">
-        <v>3781400</v>
+        <v>419433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
-        <v>8647</v>
+        <v>1305</v>
       </c>
       <c r="N23" s="7">
-        <v>7130211</v>
+        <v>692154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,63 +5150,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425432</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708191</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7">
+        <v>30153</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="7">
+        <v>37</v>
+      </c>
+      <c r="I25" s="7">
+        <v>17930</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="7">
+        <v>80</v>
+      </c>
+      <c r="N25" s="7">
+        <v>48083</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3329</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3425269</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5318</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3638022</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8647</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7063291</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3372</v>
       </c>
-      <c r="D24" s="7">
-        <v>3380653</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3455422</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>5355</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801100</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655952</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>8727</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181754</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>99</v>
+      <c r="N27" s="7">
+        <v>7111374</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
